--- a/Модели Excel/New Logic_Check.xlsx
+++ b/Модели Excel/New Logic_Check.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[&gt;0.5]0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -399,6 +399,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -534,7 +535,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -640,7 +641,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -655,11 +656,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="-2117243648"/>
+        <c:axId val="-2117229504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="-2117243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +702,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="-2117229504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="-2117229504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +761,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="-2117243648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -774,6 +775,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -841,7 +843,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1104,7 +1106,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0C8E-49EA-8023-F91E28E6037A}"/>
             </c:ext>
@@ -1297,7 +1299,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0C8E-49EA-8023-F91E28E6037A}"/>
             </c:ext>
@@ -1312,11 +1314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831134512"/>
-        <c:axId val="831136592"/>
+        <c:axId val="-2117243104"/>
+        <c:axId val="-2117239296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831134512"/>
+        <c:axId val="-2117243104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1361,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831136592"/>
+        <c:crossAx val="-2117239296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1367,7 +1369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831136592"/>
+        <c:axId val="-2117239296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1420,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831134512"/>
+        <c:crossAx val="-2117243104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1502,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1540,7 +1542,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1763,7 +1764,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE1D-48F8-B3D7-83795771211E}"/>
             </c:ext>
@@ -1956,7 +1957,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE1D-48F8-B3D7-83795771211E}"/>
             </c:ext>
@@ -1971,11 +1972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831135760"/>
-        <c:axId val="831137424"/>
+        <c:axId val="-2117245824"/>
+        <c:axId val="-2117258336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831135760"/>
+        <c:axId val="-2117245824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2019,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831137424"/>
+        <c:crossAx val="-2117258336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2026,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831137424"/>
+        <c:axId val="-2117258336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2078,3146 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831135760"/>
+        <c:crossAx val="-2117245824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>South and C. America</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fact</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$74:$AH$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ ;\-0.000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4.1973985222222218E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.102925997979798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1113723801988889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14847192031646464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25211479573939394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32099102532626267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45886673841212122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44309745380303034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5434144919363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53230114051212118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77378927034757561</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.161459974647495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6704335559913965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0779276128222435</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4491277666709861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3243590147934068</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8041473519527491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.196910547083306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.58168150222464</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.460386821823096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.177003491396867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.131776704677499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.758986944865185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.764940088184588</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.418426049307428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42E3-48F4-B971-2744E140F98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$78:$AH$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0462915654524285E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2171846431652433E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4968408963407773E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9544813521148764E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.703381602082721E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9289090330887476E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.934402589296723E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2162482463108028E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14586724749532937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23375004372721905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37756001025260782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61288302528503547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99793907507951174</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.62796370488997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6587024769999235</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.344751438120257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1020135016793207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.609142386880871</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.971518819339007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.984194909444067</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.547941989070168</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.312789765753337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133.63487706854707</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215.89966778282428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>346.09944415399121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42E3-48F4-B971-2744E140F98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2117249088"/>
+        <c:axId val="-2117240384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2117249088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117240384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117240384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_ ;\-0.000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117249088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$97:$AH$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0101010101010107E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7999999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7859999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2539000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8116E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.11217E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12567120000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32905929999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52390329999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60696369999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82907509999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3396433999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5985886210108728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-917A-4E92-B339-61AC56D22FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$101:$AH$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.4879962590381108E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8451348732288385E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4400621837167453E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0401712398185879E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9888671128634617E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8028271921329436E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2712189501680709E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3902966798661544E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6583186913409744E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0828261779989337E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7185371033043136E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8581964009037268E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5528176878478644E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7926031141303019E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2985694029932229E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.482151908827479E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7431400496211293E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0586547420914196E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17282400711751222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32905927767321652</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62415953394816626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1754932474773501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1848277068915327</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9657074930722418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9125232042315261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-917A-4E92-B339-61AC56D22FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2117238752"/>
+        <c:axId val="-2117234400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2117238752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117234400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117234400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117238752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$120:$AH$120</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.17549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.41558</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.44358400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.53559899999999994</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.76828050505050505</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.78038211111111122</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.85256560606060605</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.0162233636393438</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.3117781313131314</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.5892309393954298</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.2845824343391428</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.3865039393796339</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.5156302404970825</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>3.5934473025557492</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>5.0600728342123169</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>8.9106862826232405</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>11.176370672793865</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>12.457774095742918</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>14.770723351762967</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>18.857729132981873</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>21.789843068502105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8144-4305-9B27-5860482FD348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$124:$AH$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.0894131748349936E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9637095269554702E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1488075232865964E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7551918254072904E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.932621230433832E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11884088439371966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1588474085576862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21307524723103349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28657940310658681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38621142676174236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52125768721902532</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70430421847397739</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9524084168670599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2886861745363809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7444612191241202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3621748414852819</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1993232431691205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3337821626971591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8710015818682981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9537163119686687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.775032041930841</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.596023153390759</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.769329961672614</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.770676292887721</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.240738074103753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8144-4305-9B27-5860482FD348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2117231680"/>
+        <c:axId val="-2117237664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2117231680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117237664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117237664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117231680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Asia Pacific</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fact</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$143:$AH$143</c:f>
+              <c:numCache>
+                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.99120506648484863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2139500414949493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4895501665959596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0532490063939393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5639469797046872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5174094179774134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0670132466788278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.340875855153624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1866933999731586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.019193605714049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.569807133841692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.603131414364725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.079894595419162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.847978275086589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.484196549660197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.55108762856062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147.72358009362827</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188.47214342588194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>214.27268709044878</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243.0600532468541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>311.20761354133009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>387.09777822668809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461.95175806528346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>509.36830709449487</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>572.63610606139696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-122E-401F-84A6-A492D549EFD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$147:$AH$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.24452180486417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3213150221195213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4460319930161627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.648495040138493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9769454383641376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5091926764429604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3701444565028549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7587730917058018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9880600542866214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.54024533436448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.133411418098287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.777331856967976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.757930190266862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.434026916335483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.713720466557049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.24589129700676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.79930319072574</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>184.59796231613336</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>216.76343296850379</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>242.83826015954517</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>262.26850975292638</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>275.85766736985909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>284.94552922967148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>290.84252708255241</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>294.59445916867878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-122E-401F-84A6-A492D549EFD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2117231136"/>
+        <c:axId val="-2117255072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2117231136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117255072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117255072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117231136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$166:$AH$166</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6700000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4300000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22808900000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.217278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38178899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79532899999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.33765</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5520814049442262</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9041792796486179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9570-4B81-803C-FA6B2B30FFB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$170:$AH$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.2164572130213854E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5715694268426181E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9859420682412197E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4693473518814626E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0331265573041418E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6904266050559126E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4564666975425988E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3488367307645385E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3878283707913328E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5967984098060474E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10002562110858255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11635811521879377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13531549955721714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15729528732142403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18274665585735045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2121741560894749</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24614055051278813</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28526825739980877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33023873643196161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38178899983518205</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4407042888167847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50780584304972565</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58393264850776927</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66991612617830365</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76654698142574795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9570-4B81-803C-FA6B2B30FFB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2117238208"/>
+        <c:axId val="-2117237120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2117238208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117237120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117237120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117238208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Capacities!$J$166:$AH$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28621999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86A3-4BD4-B6FE-439D9D9A37BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Capacities!$J$170:$AH$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0659812999557532E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.200280679678745E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3616021652371805E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5553561102356167E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7880242921546378E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0673668469479253E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.402666844064192E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8050183043456609E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2876638711101344E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8663885216083924E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5599754847530954E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3907296699695142E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3850720709452427E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.574205320091433E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.994845212881937E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10690004797275386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12709805554345313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15112273165224316</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17964052229856434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21340944170109954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25328135194994494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3001993782966525</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35518823795834037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41933485502936035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49375640850446245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86A3-4BD4-B6FE-439D9D9A37BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2117232224"/>
+        <c:axId val="-2117234944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2117232224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117234944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2117234944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2117232224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2158,8 +5298,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2173,32 +5313,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>South and C. America</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2238,9 +5352,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Fact</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2253,187 +5364,100 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:f>Capacities!$J$120:$AH$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1996</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1997</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>0.13340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2001</c:v>
+                  <c:v>0.13340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2002</c:v>
+                  <c:v>0.13966000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2003</c:v>
+                  <c:v>0.15024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2004</c:v>
+                  <c:v>0.22616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2005</c:v>
+                  <c:v>0.22638</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2006</c:v>
+                  <c:v>0.31108000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2007</c:v>
+                  <c:v>0.45191999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2008</c:v>
+                  <c:v>0.53712000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2009</c:v>
+                  <c:v>0.72405000000000008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2010</c:v>
+                  <c:v>0.84647699999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2011</c:v>
+                  <c:v>0.97668200000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2012</c:v>
+                  <c:v>1.1099740000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2013</c:v>
+                  <c:v>1.7242039999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2014</c:v>
+                  <c:v>2.382768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>3.3220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2016</c:v>
+                  <c:v>3.8290000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2017</c:v>
+                  <c:v>4.5810000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2018</c:v>
+                  <c:v>5.4690000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2019</c:v>
+                  <c:v>5.7690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$74:$AH$74</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ ;\-0.000\ </c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>4.1973985222222218E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.102925997979798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1113723801988889</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14847192031646464</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25211479573939394</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32099102532626267</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45886673841212122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44309745380303034</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5434144919363636</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53230114051212118</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.77378927034757561</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.161459974647495</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6704335559913965</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0779276128222435</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.4491277666709861</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3243590147934068</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.8041473519527491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.196910547083306</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.58168150222464</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31.460386821823096</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45.177003491396867</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>56.131776704677499</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65.758986944865185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.764940088184588</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.418426049307428</c:v>
+                  <c:v>6.4909999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42E3-48F4-B971-2744E140F98A}"/>
+              <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Model</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2446,178 +5470,94 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:f>Capacities!$J$124:$AH$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1996</c:v>
+                  <c:v>1.7574871627901563E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1997</c:v>
+                  <c:v>2.2609127188030459E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998</c:v>
+                  <c:v>2.9270588475068561E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999</c:v>
+                  <c:v>3.8085201734898363E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>4.9748902263704105E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2001</c:v>
+                  <c:v>6.5182550235930517E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2002</c:v>
+                  <c:v>8.5604616033064157E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2003</c:v>
+                  <c:v>0.11262734665114811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2004</c:v>
+                  <c:v>0.14838399317337228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2005</c:v>
+                  <c:v>0.19569712200048725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2006</c:v>
+                  <c:v>0.2583012592564764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2007</c:v>
+                  <c:v>0.34113737779227965</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2008</c:v>
+                  <c:v>0.45074235621189684</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2009</c:v>
+                  <c:v>0.5957639462137907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2010</c:v>
+                  <c:v>0.78764153359981182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2011</c:v>
+                  <c:v>1.0415057877350946</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2012</c:v>
+                  <c:v>1.3773670853159627</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2013</c:v>
+                  <c:v>1.8216845354107623</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2014</c:v>
+                  <c:v>2.4094359816925857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>3.1868462901778667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2016</c:v>
+                  <c:v>4.2149786299836194</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2017</c:v>
+                  <c:v>5.5744536170835968</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2018</c:v>
+                  <c:v>7.3716363627352459</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2019</c:v>
+                  <c:v>9.7467232631684215</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$78:$AH$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.0462915654524285E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2171846431652433E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4968408963407773E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9544813521148764E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.703381602082721E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9289090330887476E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.934402589296723E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2162482463108028E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14586724749532937</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23375004372721905</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37756001025260782</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.61288302528503547</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99793907507951174</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.62796370488997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6587024769999235</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.344751438120257</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.1020135016793207</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.609142386880871</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.971518819339007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.984194909444067</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.547941989070168</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>82.312789765753337</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>133.63487706854707</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>215.89966778282428</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>346.09944415399121</c:v>
+                  <c:v>12.884268612529654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-42E3-48F4-B971-2744E140F98A}"/>
+              <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2630,17 +5570,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831133680"/>
-        <c:axId val="831136176"/>
+        <c:axId val="-2117256704"/>
+        <c:axId val="-2117261056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831133680"/>
+        <c:axId val="-2117256704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2677,7 +5616,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831136176"/>
+        <c:crossAx val="-2117261056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2685,7 +5624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831136176"/>
+        <c:axId val="-2117261056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +5644,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000_ ;\-0.000\ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2736,7 +5675,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831133680"/>
+        <c:crossAx val="-2117256704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2817,8 +5756,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2885,92 +5824,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$97:$AH$97</c:f>
+              <c:f>Capacities!$J$3:$AH$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.623075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.9361749999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.426555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9E-3</c:v>
+                  <c:v>17.303699999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0999999999999999E-3</c:v>
+                  <c:v>23.976400000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1999999999999998E-3</c:v>
+                  <c:v>30.979460000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6E-3</c:v>
+                  <c:v>38.391740000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0101010101010107E-3</c:v>
+                  <c:v>46.910760000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8000000000000005E-3</c:v>
+                  <c:v>58.441379999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7999999999999988E-3</c:v>
+                  <c:v>73.151979999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0499999999999999E-2</c:v>
+                  <c:v>91.496220000000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0999999999999996E-3</c:v>
+                  <c:v>115.34757400000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.12E-2</c:v>
+                  <c:v>150.16500400000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7859999999999996E-3</c:v>
+                  <c:v>180.92387099999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2539000000000002E-2</c:v>
+                  <c:v>220.12026299999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8116E-2</c:v>
+                  <c:v>267.09671599999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.11217E-2</c:v>
+                  <c:v>300.286743</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12567120000000001</c:v>
+                  <c:v>349.67100699999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32905929999999994</c:v>
+                  <c:v>416.244731</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.52390329999999996</c:v>
+                  <c:v>466.86111600000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.60696369999999999</c:v>
+                  <c:v>514.37402999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.82907509999999995</c:v>
+                  <c:v>563.829025</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3396433999999999</c:v>
+                  <c:v>622.2489250000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5985886210108728</c:v>
+                  <c:v>733.27599999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-917A-4E92-B339-61AC56D22FD1}"/>
+              <c16:uniqueId val="{00000000-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2991,92 +5930,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$101:$AH$101</c:f>
+              <c:f>Capacities!$J$7:$AH$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.4879962590381108E-6</c:v>
+                  <c:v>9.7747777719868569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8451348732288385E-6</c:v>
+                  <c:v>11.325375746457013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4400621837167453E-6</c:v>
+                  <c:v>13.351536025439767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0401712398185879E-5</c:v>
+                  <c:v>15.995115460605849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9888671128634617E-5</c:v>
+                  <c:v>19.437466910575271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8028271921329436E-5</c:v>
+                  <c:v>23.908461004881936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2712189501680709E-5</c:v>
+                  <c:v>29.696170330503218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3902966798661544E-4</c:v>
+                  <c:v>37.156156814601978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6583186913409744E-4</c:v>
+                  <c:v>46.718380518592312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0828261779989337E-4</c:v>
+                  <c:v>58.888432218236055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7185371033043136E-4</c:v>
+                  <c:v>74.238150965658789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8581964009037268E-3</c:v>
+                  <c:v>93.37908363751832</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5528176878478644E-3</c:v>
+                  <c:v>116.91155963177</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7926031141303019E-3</c:v>
+                  <c:v>145.34394936951048</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2985694029932229E-2</c:v>
+                  <c:v>178.98293115491055</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.482151908827479E-2</c:v>
+                  <c:v>217.80755037916961</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7431400496211293E-2</c:v>
+                  <c:v>261.35577304872101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0586547420914196E-2</c:v>
+                  <c:v>308.66519314510867</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.17282400711751222</c:v>
+                  <c:v>358.30842290977949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32905927767321652</c:v>
+                  <c:v>408.54011927908806</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.62415953394816626</c:v>
+                  <c:v>457.53122574112712</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1754932474773501</c:v>
+                  <c:v>503.62750420132642</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1848277068915327</c:v>
+                  <c:v>545.55795580289976</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9657074930722418</c:v>
+                  <c:v>582.54206515102828</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9125232042315261</c:v>
+                  <c:v>614.28737815181591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-917A-4E92-B339-61AC56D22FD1}"/>
+              <c16:uniqueId val="{00000001-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3089,11 +6028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="874562400"/>
-        <c:axId val="874564064"/>
+        <c:axId val="-2117245280"/>
+        <c:axId val="-2117251808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="874562400"/>
+        <c:axId val="-2117245280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,7 +6074,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874564064"/>
+        <c:crossAx val="-2117251808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3143,7 +6082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="874564064"/>
+        <c:axId val="-2117251808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +6102,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3194,7 +6133,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874562400"/>
+        <c:crossAx val="-2117245280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3275,8 +6214,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3343,92 +6282,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$120:$AH$120</c:f>
+              <c:f>Capacities!$J$28:$AH$28</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>7.0999999999999995E-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2000000000000007E-3</c:v>
+                  <c:v>4.8099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6E-3</c:v>
+                  <c:v>6.3831000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.17549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.41558</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.44358400000000003</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.53559899999999994</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.76828050505050505</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.78038211111111122</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.85256560606060605</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.0162233636393438</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.3117781313131314</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.5892309393954298</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.2845824343391428</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.3865039393796339</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.5156302404970825</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>3.5934473025557492</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>5.0600728342123169</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>8.9106862826232405</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>11.176370672793865</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>12.457774095742918</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>14.770723351762967</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>18.857729132981873</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>21.789843068502105</c:v>
+                  <c:v>9.2797999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.749885000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.411902999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.307081000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.169936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.337372000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.701314999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.973924999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.482855999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.415552000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.59579500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86.236389000000017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.439363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>109.44361000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.01438599999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133.814392</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147.536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>161.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>177.14015000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>188.96835000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203.90215000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216.57900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8144-4305-9B27-5860482FD348}"/>
+              <c16:uniqueId val="{00000000-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3449,92 +6388,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$124:$AH$124</c:f>
+              <c:f>Capacities!$J$32:$AH$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3.0894131748349936E-2</c:v>
+                  <c:v>6.5874383181074183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9637095269554702E-2</c:v>
+                  <c:v>7.9926407328921787</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1488075232865964E-2</c:v>
+                  <c:v>9.7360003878993382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7551918254072904E-2</c:v>
+                  <c:v>11.890471402012286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.932621230433832E-2</c:v>
+                  <c:v>14.540199227655036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11884088439371966</c:v>
+                  <c:v>17.779782203409059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1588474085576862</c:v>
+                  <c:v>21.711963427369074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21307524723103349</c:v>
+                  <c:v>26.443099285023585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28657940310658681</c:v>
+                  <c:v>32.07576817835097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38621142676174236</c:v>
+                  <c:v>38.698117301497348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.52125768721902532</c:v>
+                  <c:v>46.370111104556869</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70430421847397739</c:v>
+                  <c:v>55.107801952231654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9524084168670599</c:v>
+                  <c:v>64.867992554639386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2886861745363809</c:v>
+                  <c:v>75.536842289194908</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7444612191241202</c:v>
+                  <c:v>86.926469254677187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3621748414852819</c:v>
+                  <c:v>98.782765026296147</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1993232431691205</c:v>
+                  <c:v>110.80522267886226</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3337821626971591</c:v>
+                  <c:v>122.67614869184449</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8710015818682981</c:v>
+                  <c:v>134.09353691855623</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.9537163119686687</c:v>
+                  <c:v>144.80059604512394</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.775032041930841</c:v>
+                  <c:v>154.60609949476296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.596023153390759</c:v>
+                  <c:v>163.3927648780475</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.769329961672614</c:v>
+                  <c:v>171.11431860105048</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.770676292887721</c:v>
+                  <c:v>177.784384475157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.240738074103753</c:v>
+                  <c:v>183.46124316396251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8144-4305-9B27-5860482FD348}"/>
+              <c16:uniqueId val="{00000001-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3547,11 +6486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="691578608"/>
-        <c:axId val="691581936"/>
+        <c:axId val="-2117246912"/>
+        <c:axId val="-2117232768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="691578608"/>
+        <c:axId val="-2117246912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +6532,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691581936"/>
+        <c:crossAx val="-2117232768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3601,7 +6540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691581936"/>
+        <c:axId val="-2117232768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +6560,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3652,7 +6591,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691578608"/>
+        <c:crossAx val="-2117246912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3733,8 +6672,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3748,32 +6687,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Asia Pacific</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3813,9 +6726,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Fact</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3828,187 +6738,100 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:f>Capacities!$J$51:$AH$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1997</c:v>
+                  <c:v>1.639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998</c:v>
+                  <c:v>2.226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999</c:v>
+                  <c:v>2.573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2.5329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2001</c:v>
+                  <c:v>4.0949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2002</c:v>
+                  <c:v>4.7050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2003</c:v>
+                  <c:v>6.3639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2004</c:v>
+                  <c:v>6.9180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2005</c:v>
+                  <c:v>9.4009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2006</c:v>
+                  <c:v>12.853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2007</c:v>
+                  <c:v>18.456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2008</c:v>
+                  <c:v>27.088000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2009</c:v>
+                  <c:v>38.003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2010</c:v>
+                  <c:v>43.621000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2011</c:v>
+                  <c:v>51.542000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2012</c:v>
+                  <c:v>67.090999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2013</c:v>
+                  <c:v>69.896000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2014</c:v>
+                  <c:v>76.495000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>87.058019999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2016</c:v>
+                  <c:v>97.31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2017</c:v>
+                  <c:v>104.19897999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2018</c:v>
+                  <c:v>112.10877499999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2019</c:v>
+                  <c:v>123.57487500000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$143:$AH$143</c:f>
-              <c:numCache>
-                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.99120506648484863</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2139500414949493</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4895501665959596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0532490063939393</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5639469797046872</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5174094179774134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0670132466788278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.340875855153624</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.1866933999731586</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.019193605714049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.569807133841692</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.603131414364725</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.079894595419162</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54.847978275086589</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81.484196549660197</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>113.55108762856062</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>147.72358009362827</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>188.47214342588194</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>214.27268709044878</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>243.0600532468541</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>311.20761354133009</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>387.09777822668809</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>461.95175806528346</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>509.36830709449487</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>572.63610606139696</c:v>
+                  <c:v>139.44900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-122E-401F-84A6-A492D549EFD3}"/>
+              <c16:uniqueId val="{00000000-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Model</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4021,178 +6844,94 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Generation!$J$1:$AH$1</c:f>
+              <c:f>Capacities!$J$55:$AH$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1996</c:v>
+                  <c:v>0.83893291578621498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1997</c:v>
+                  <c:v>0.99850597469317592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1998</c:v>
+                  <c:v>1.2326570847725644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1999</c:v>
+                  <c:v>1.5756051664216952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>2.0765417432863611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2001</c:v>
+                  <c:v>2.8053575940842177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2002</c:v>
+                  <c:v>3.8596320911075743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2003</c:v>
+                  <c:v>5.3720751054337574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2004</c:v>
+                  <c:v>7.5161205534747833</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2005</c:v>
+                  <c:v>10.504787556313117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2006</c:v>
+                  <c:v>14.574491857848002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2007</c:v>
+                  <c:v>19.943244015563081</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2008</c:v>
+                  <c:v>26.736884067794723</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2009</c:v>
+                  <c:v>34.894726473361452</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2010</c:v>
+                  <c:v>44.096306222343955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2011</c:v>
+                  <c:v>53.770286889389872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2012</c:v>
+                  <c:v>63.217248811237546</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2013</c:v>
+                  <c:v>71.800444440401122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2014</c:v>
+                  <c:v>79.102553442619723</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>84.975215760655274</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2016</c:v>
+                  <c:v>89.48838199466087</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2017</c:v>
+                  <c:v>92.837094551432926</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2018</c:v>
+                  <c:v>95.257612543763685</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2019</c:v>
+                  <c:v>96.974308682664926</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$147:$AH$147</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.24452180486417</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3213150221195213</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4460319930161627</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.648495040138493</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9769454383641376</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5091926764429604</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3701444565028549</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7587730917058018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.9880600542866214</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.54024533436448</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.133411418098287</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.777331856967976</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.757930190266862</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56.434026916335483</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81.713720466557049</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>113.24589129700676</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>148.79930319072574</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>184.59796231613336</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>216.76343296850379</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>242.83826015954517</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>262.26850975292638</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>275.85766736985909</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>284.94552922967148</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>290.84252708255241</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>294.59445916867878</c:v>
+                  <c:v>98.175506788383004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-122E-401F-84A6-A492D549EFD3}"/>
+              <c16:uniqueId val="{00000001-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4205,17 +6944,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1045149120"/>
-        <c:axId val="1045152864"/>
+        <c:axId val="-2117259968"/>
+        <c:axId val="-2117242016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1045149120"/>
+        <c:axId val="-2117259968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4252,7 +6990,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045152864"/>
+        <c:crossAx val="-2117242016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4260,7 +6998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1045152864"/>
+        <c:axId val="-2117242016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,7 +7018,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4311,7 +7049,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045149120"/>
+        <c:crossAx val="-2117259968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4392,8 +7130,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4407,6 +7145,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4460,92 +7224,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$166:$AH$166</c:f>
+              <c:f>Capacities!$J$74:$AH$74</c:f>
               <c:numCache>
-                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8000000000000006E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.95E-2</c:v>
+                  <c:v>9.0400000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6700000000000005E-2</c:v>
+                  <c:v>0.13389999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4300000000000006E-2</c:v>
+                  <c:v>0.13619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2600000000000006E-2</c:v>
+                  <c:v>0.1525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1400000000000003E-2</c:v>
+                  <c:v>0.19639999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6000000000000007E-2</c:v>
+                  <c:v>0.19309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1394</c:v>
+                  <c:v>0.41099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.155</c:v>
+                  <c:v>0.44519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21010000000000001</c:v>
+                  <c:v>0.61320000000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24049999999999999</c:v>
+                  <c:v>1.1069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22220000000000001</c:v>
+                  <c:v>1.4889000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2258</c:v>
+                  <c:v>2.1971999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21660000000000001</c:v>
+                  <c:v>3.0713000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.22808900000000001</c:v>
+                  <c:v>3.6191000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.217278</c:v>
+                  <c:v>7.4813999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38178899999999999</c:v>
+                  <c:v>11.244999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67800000000000005</c:v>
+                  <c:v>14.491</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.79532899999999995</c:v>
+                  <c:v>17.327000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.33765</c:v>
+                  <c:v>20.849</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5520814049442262</c:v>
+                  <c:v>22.646000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9041792796486179</c:v>
+                  <c:v>26.423999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9570-4B81-803C-FA6B2B30FFB5}"/>
+              <c16:uniqueId val="{00000000-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4566,92 +7330,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$170:$AH$170</c:f>
+              <c:f>Capacities!$J$78:$AH$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.2164572130213854E-2</c:v>
+                  <c:v>1.2576443170331473E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5715694268426181E-2</c:v>
+                  <c:v>1.4003136417273545E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9859420682412197E-2</c:v>
+                  <c:v>1.6219854069483352E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4693473518814626E-2</c:v>
+                  <c:v>1.966406792619653E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0331265573041418E-2</c:v>
+                  <c:v>2.5015496966518225E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6904266050559126E-2</c:v>
+                  <c:v>3.33302494590186E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4564666975425988E-2</c:v>
+                  <c:v>4.6249244020080627E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3488367307645385E-2</c:v>
+                  <c:v>6.6322038946754758E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3878283707913328E-2</c:v>
+                  <c:v>9.75099710722548E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5967984098060474E-2</c:v>
+                  <c:v>0.14596788256276019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10002562110858255</c:v>
+                  <c:v>0.22125867008790631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11635811521879377</c:v>
+                  <c:v>0.33824025165039623</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13531549955721714</c:v>
+                  <c:v>0.51999711069953269</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15729528732142403</c:v>
+                  <c:v>0.80239439223056974</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18274665585735045</c:v>
+                  <c:v>1.2411519329060845</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2121741560894749</c:v>
+                  <c:v>1.9228309753517101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24614055051278813</c:v>
+                  <c:v>2.9818937980832616</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28526825739980877</c:v>
+                  <c:v>4.6271836693273398</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33023873643196161</c:v>
+                  <c:v>7.1830043400884653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.38178899983518205</c:v>
+                  <c:v>11.152793702420855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4407042888167847</c:v>
+                  <c:v>17.3176866620665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50780584304972565</c:v>
+                  <c:v>26.888766230270303</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58393264850776927</c:v>
+                  <c:v>41.741481285792375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66991612617830365</c:v>
+                  <c:v>64.774732267678971</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.76654698142574795</c:v>
+                  <c:v>100.45650411664171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9570-4B81-803C-FA6B2B30FFB5}"/>
+              <c16:uniqueId val="{00000001-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4664,11 +7428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1042030720"/>
-        <c:axId val="613742480"/>
+        <c:axId val="-2117251264"/>
+        <c:axId val="-2117244736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1042030720"/>
+        <c:axId val="-2117251264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4710,7 +7474,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613742480"/>
+        <c:crossAx val="-2117244736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4718,7 +7482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613742480"/>
+        <c:axId val="-2117244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,7 +7502,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4769,7 +7533,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042030720"/>
+        <c:crossAx val="-2117251264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4850,8 +7614,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4865,2768 +7629,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$166:$AH$166</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.24E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.24E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.17E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1037</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1153</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1192</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16219999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.28621999999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.42299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.504</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.60899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.76900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.91500000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86A3-4BD4-B6FE-439D9D9A37BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$170:$AH$170</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.0659812999557532E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.200280679678745E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3616021652371805E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5553561102356167E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7880242921546378E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0673668469479253E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.402666844064192E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8050183043456609E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2876638711101344E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8663885216083924E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5599754847530954E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.3907296699695142E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.3850720709452427E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.574205320091433E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.994845212881937E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10690004797275386</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.12709805554345313</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.15112273165224316</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.17964052229856434</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.21340944170109954</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.25328135194994494</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3001993782966525</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.35518823795834037</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.41933485502936035</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.49375640850446245</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-86A3-4BD4-B6FE-439D9D9A37BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="986004560"/>
-        <c:axId val="986006640"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="986004560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986006640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="986006640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986004560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$120:$AH$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13340000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13340000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13966000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15024000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.22616</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22638</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.31108000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45191999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.53712000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.72405000000000008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.84647699999999992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.97668200000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1099740000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7242039999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.382768</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.3220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.8290000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5810000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.4690000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.7690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.4909999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$124:$AH$124</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.7574871627901563E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2609127188030459E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9270588475068561E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8085201734898363E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9748902263704105E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5182550235930517E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5604616033064157E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11262734665114811</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14838399317337228</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19569712200048725</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2583012592564764</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34113737779227965</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45074235621189684</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5957639462137907</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.78764153359981182</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0415057877350946</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3773670853159627</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8216845354107623</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.4094359816925857</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.1868462901778667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2149786299836194</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.5744536170835968</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3716363627352459</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.7467232631684215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.884268612529654</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="875861504"/>
-        <c:axId val="875870240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="875861504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="875870240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="875870240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="875861504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$3:$AH$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>6.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.623075</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9361749999999986</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.426555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.303699999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.976400000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.979460000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.391740000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46.910760000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.441379999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>73.151979999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>91.496220000000008</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>115.34757400000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150.16500400000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>180.92387099999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>220.12026299999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>267.09671599999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300.286743</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>349.67100699999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>416.244731</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>466.86111600000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>514.37402999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>563.829025</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>622.2489250000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>733.27599999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE5F-4D7A-9325-3DD9837EF9FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$7:$AH$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>9.7747777719868569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.325375746457013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.351536025439767</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.995115460605849</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.437466910575271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.908461004881936</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.696170330503218</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37.156156814601978</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46.718380518592312</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.888432218236055</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74.238150965658789</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93.37908363751832</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>116.91155963177</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>145.34394936951048</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>178.98293115491055</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>217.80755037916961</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>261.35577304872101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>308.66519314510867</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>358.30842290977949</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>408.54011927908806</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>457.53122574112712</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>503.62750420132642</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>545.55795580289976</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>582.54206515102828</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>614.28737815181591</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE5F-4D7A-9325-3DD9837EF9FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="948278464"/>
-        <c:axId val="948276800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="948278464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948276800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="948276800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948278464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$28:$AH$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3831000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2797999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.749885000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.411902999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.307081000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.169936</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.337372000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40.701314999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.973924999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56.482855999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64.415552000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76.59579500000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.236389000000017</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96.439363</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>109.44361000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>121.01438599999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>133.814392</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>147.536</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>161.50700000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>177.14015000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>188.96835000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>203.90215000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>216.57900000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EF1-4F39-81DD-56B4906B8BE7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$32:$AH$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>6.5874383181074183</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9926407328921787</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7360003878993382</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.890471402012286</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.540199227655036</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.779782203409059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.711963427369074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.443099285023585</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.07576817835097</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.698117301497348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46.370111104556869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.107801952231654</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64.867992554639386</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75.536842289194908</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.926469254677187</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>98.782765026296147</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>110.80522267886226</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>122.67614869184449</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>134.09353691855623</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>144.80059604512394</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>154.60609949476296</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>163.3927648780475</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>171.11431860105048</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>177.784384475157</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>183.46124316396251</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6EF1-4F39-81DD-56B4906B8BE7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="948283456"/>
-        <c:axId val="948297600"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="948283456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948297600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="948297600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948283456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$51:$AH$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.639</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.226</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.573</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0949999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.9180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.853</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.456</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.088000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>38.003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.621000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51.542000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.090999999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>69.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>76.495000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>87.058019999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>97.31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>104.19897999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>112.10877499999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>123.57487500000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>139.44900000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C03-4799-9415-128D135F1E11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$55:$AH$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.83893291578621498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99850597469317592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2326570847725644</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5756051664216952</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0765417432863611</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8053575940842177</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8596320911075743</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3720751054337574</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5161205534747833</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.504787556313117</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.574491857848002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.943244015563081</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.736884067794723</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34.894726473361452</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.096306222343955</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53.770286889389872</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>63.217248811237546</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71.800444440401122</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>79.102553442619723</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>84.975215760655274</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89.48838199466087</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>92.837094551432926</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>95.257612543763685</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>96.974308682664926</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>98.175506788383004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C03-4799-9415-128D135F1E11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="985997904"/>
-        <c:axId val="986004976"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="985997904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986004976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="986004976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="985997904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2020</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$74:$AH$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0400000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13389999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1525</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19639999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.41099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.44519999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.61320000000000008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1069</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4889000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1971999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.0713000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.6191000000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.4813999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.244999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.491</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.327000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20.849</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.646000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26.423999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB22-4E5F-8020-017F0C4E1BAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capacities!$J$78:$AH$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.2576443170331473E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4003136417273545E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6219854069483352E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.966406792619653E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5015496966518225E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.33302494590186E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6249244020080627E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6322038946754758E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.75099710722548E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14596788256276019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22125867008790631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.33824025165039623</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.51999711069953269</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.80239439223056974</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2411519329060845</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9228309753517101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9818937980832616</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.6271836693273398</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.1830043400884653</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.152793702420855</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.3176866620665</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.888766230270303</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41.741481285792375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>64.774732267678971</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100.45650411664171</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB22-4E5F-8020-017F0C4E1BAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="948308000"/>
-        <c:axId val="948317984"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="948308000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948317984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="948317984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="948308000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7762,7 +7765,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6760-4CA5-9B8F-BF415A6FABF0}"/>
             </c:ext>
@@ -7868,7 +7871,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6760-4CA5-9B8F-BF415A6FABF0}"/>
             </c:ext>
@@ -7883,11 +7886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1810195856"/>
-        <c:axId val="1810195440"/>
+        <c:axId val="-2117257792"/>
+        <c:axId val="-2117256160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810195856"/>
+        <c:axId val="-2117257792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,7 +7932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810195440"/>
+        <c:crossAx val="-2117256160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7937,7 +7940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810195440"/>
+        <c:axId val="-2117256160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7988,7 +7991,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810195856"/>
+        <c:crossAx val="-2117257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8002,6 +8005,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8069,7 +8073,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8336,7 +8340,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60A5-4987-8382-8EC5187F4F40}"/>
             </c:ext>
@@ -8529,7 +8533,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-60A5-4987-8382-8EC5187F4F40}"/>
             </c:ext>
@@ -8544,11 +8548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1051492464"/>
-        <c:axId val="1051493712"/>
+        <c:axId val="-2117250176"/>
+        <c:axId val="-2117255616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1051492464"/>
+        <c:axId val="-2117250176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8591,7 +8595,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051493712"/>
+        <c:crossAx val="-2117255616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8599,7 +8603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1051493712"/>
+        <c:axId val="-2117255616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8650,7 +8654,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051492464"/>
+        <c:crossAx val="-2117250176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17647,7 +17651,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17683,7 +17687,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17719,7 +17723,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17755,7 +17759,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17791,7 +17795,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17827,7 +17831,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17863,7 +17867,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17899,7 +17903,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17940,7 +17944,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17976,7 +17980,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18012,7 +18016,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18048,7 +18052,7 @@
         <xdr:cNvPr id="27" name="Диаграмма 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18084,7 +18088,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18120,7 +18124,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18156,7 +18160,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18192,7 +18196,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18479,9 +18483,9 @@
   <dimension ref="A1:AH170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AK1" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23581,8 +23585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:C145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24181,7 +24185,7 @@
         <v>17.228762200877394</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f>$I3+$C5*(1/(1+EXP(-$A5*(L4-$B5))))</f>
         <v>20.373739672795541</v>
       </c>
       <c r="M7">
